--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail15 Features.xlsx
@@ -5017,7 +5017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5028,29 +5028,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5071,115 +5069,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5196,72 +5184,66 @@
         <v>1.569810697248945e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.927979262122228</v>
+        <v>5.253716721652593e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.5912756045353142</v>
+        <v>6.786417142764582e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.253716721652593e-07</v>
+        <v>-0.03614320740901689</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.786417142764582e-06</v>
+        <v>0.124938662999498</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03614320740901689</v>
+        <v>0.01690559774204758</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.124938662999498</v>
+        <v>1.84740101473536</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01690559774204758</v>
+        <v>2.065462372305789</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.824581018751797</v>
+        <v>4.384927843388652</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.065462372305789</v>
+        <v>2.685462883728709e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.384927843388652</v>
+        <v>193405611.0870062</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.685462883728709e-15</v>
+        <v>6.162272489548874e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>193405611.0870062</v>
+        <v>100.451700627797</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.162272489548874e-07</v>
+        <v>0.0001175317670810795</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>100.451700627797</v>
+        <v>11.74707800693975</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001175317670810795</v>
+        <v>1.242264658378283</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.74707800693975</v>
+        <v>0.01621866006144027</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.242264658378283</v>
+        <v>3.287786296314074</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01621866006144027</v>
+        <v>0.9597154851607812</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.287786296314074</v>
+        <v>1.531701976810113</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9597154851607812</v>
+        <v>84</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.531701976810113</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4840352082411226</v>
       </c>
     </row>
@@ -5276,72 +5258,66 @@
         <v>1.555559015832331e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.013392351558505</v>
+        <v>5.253716721652593e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4102529255076726</v>
+        <v>6.781160222325937e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.253716721652593e-07</v>
+        <v>-0.03161366444213416</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.781160222325937e-06</v>
+        <v>0.1208522420782162</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03161366444213416</v>
+        <v>0.01560200858477855</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1208522420782162</v>
+        <v>1.853146320546394</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01560200858477855</v>
+        <v>1.933243133041491</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.83219443349475</v>
+        <v>4.423627701043319</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.933243133041491</v>
+        <v>2.638681174940558e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.423627701043319</v>
+        <v>198286605.0332993</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.638681174940558e-15</v>
+        <v>6.012450630202072e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>198286605.0332993</v>
+        <v>103.7465522152732</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.012450630202072e-07</v>
+        <v>0.0001344992923783094</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>103.7465522152732</v>
+        <v>9.857162992833066</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001344992923783094</v>
+        <v>1.426337906248217</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.857162992833066</v>
+        <v>0.0130684438198339</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.426337906248217</v>
+        <v>3.350569473071805</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0130684438198339</v>
+        <v>0.9593023041881513</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.350569473071805</v>
+        <v>1.560961981014791</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9593023041881513</v>
+        <v>84</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.560961981014791</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.4064632563097558</v>
       </c>
     </row>
@@ -5356,72 +5332,66 @@
         <v>1.546109212323594e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.094871328323754</v>
+        <v>5.253716721652593e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.2381799303921106</v>
+        <v>6.77644693808052e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.253716721652593e-07</v>
+        <v>-0.02960003381250654</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.77644693808052e-06</v>
+        <v>0.1211411256139102</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02960003381250654</v>
+        <v>0.0155512946854149</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1211411256139102</v>
+        <v>1.876156807662481</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0155512946854149</v>
+        <v>1.969875105153136</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.870522233466232</v>
+        <v>4.366615905760206</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.969875105153136</v>
+        <v>2.82243996862392e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.366615905760206</v>
+        <v>182544165.3106494</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.82243996862392e-15</v>
+        <v>6.554370760620535e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>182544165.3106494</v>
+        <v>94.05039539773166</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.554370760620535e-07</v>
+        <v>0.0001443713050512383</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>94.05039539773166</v>
+        <v>8.214841189334624</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001443713050512383</v>
+        <v>1.688620139707399</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.214841189334624</v>
+        <v>0.009742697677712108</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.688620139707399</v>
+        <v>3.283522585326721</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009742697677712108</v>
+        <v>0.9593195845555202</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.283522585326721</v>
+        <v>1.473569573601976</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9593195845555202</v>
+        <v>79</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.473569573601976</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3401354716215792</v>
       </c>
     </row>
@@ -5436,72 +5406,66 @@
         <v>1.535010873353276e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.179457824661005</v>
+        <v>5.253716721652593e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.04623606353917742</v>
+        <v>6.771916323810774e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.253716721652593e-07</v>
+        <v>-0.02928661704237419</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.771916323810774e-06</v>
+        <v>0.122385821836444</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02928661704237419</v>
+        <v>0.01583476273719799</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.122385821836444</v>
+        <v>1.887473042821123</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01583476273719799</v>
+        <v>1.986523625779669</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.883420394514203</v>
+        <v>4.284635991740624</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.986523625779669</v>
+        <v>2.424156295998676e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.284635991740624</v>
+        <v>213161536.8740585</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.424156295998676e-15</v>
+        <v>5.619378600580476e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>213161536.8740585</v>
+        <v>110.1484278579916</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.619378600580476e-07</v>
+        <v>0.0001278749647538902</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>110.1484278579916</v>
+        <v>9.142645052336166</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001278749647538902</v>
+        <v>1.268634566148973</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.142645052336166</v>
+        <v>0.0106888072538154</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.268634566148973</v>
+        <v>3.240506527086397</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0106888072538154</v>
+        <v>0.9602900798308007</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.240506527086397</v>
+        <v>1.453266847789255</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9602900798308007</v>
+        <v>79</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.453266847789255</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3888123087643672</v>
       </c>
     </row>
@@ -5516,72 +5480,66 @@
         <v>1.518118316661793e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.272720247987954</v>
+        <v>5.253716721652593e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.1927004081660519</v>
+        <v>6.76744467633246e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.253716721652593e-07</v>
+        <v>-0.02931954311777674</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.76744467633246e-06</v>
+        <v>0.1241244338349202</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02931954311777674</v>
+        <v>0.01626275208564192</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1241244338349202</v>
+        <v>1.880765733257234</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01626275208564192</v>
+        <v>2.31302294841817</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.879416088100919</v>
+        <v>4.159389526305429</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.31302294841817</v>
+        <v>2.58618343740866e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.159389526305429</v>
+        <v>194000711.2755648</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.58618343740866e-15</v>
+        <v>6.164641704229388e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>194000711.2755648</v>
+        <v>97.33431357338573</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.164641704229388e-07</v>
+        <v>0.0001306389737644611</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>97.33431357338573</v>
+        <v>11.60219950148674</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001306389737644611</v>
+        <v>1.114709555070119</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.60219950148674</v>
+        <v>0.01758544724406688</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.114709555070119</v>
+        <v>3.110227489779481</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01758544724406688</v>
+        <v>0.959771995417944</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.110227489779481</v>
+        <v>1.423264601124425</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.959771995417944</v>
+        <v>70</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.423264601124425</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4647313109763924</v>
       </c>
     </row>
@@ -5596,72 +5554,66 @@
         <v>1.491951616707237e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.37667813664176</v>
+        <v>5.253716721652593e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.5033438929291116</v>
+        <v>6.762955114880741e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.253716721652593e-07</v>
+        <v>-0.0304904535111937</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.762955114880741e-06</v>
+        <v>0.1250955912723345</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0304904535111937</v>
+        <v>0.01657279536347395</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1250955912723345</v>
+        <v>1.871357510019374</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01657279536347395</v>
+        <v>2.107960393468511</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.867037230559517</v>
+        <v>4.171914827636408</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.107960393468511</v>
+        <v>2.570677799352849e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.171914827636408</v>
+        <v>189442874.6043955</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.570677799352849e-15</v>
+        <v>6.283880178837237e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>189442874.6043955</v>
+        <v>92.25803430933891</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.283880178837237e-07</v>
+        <v>0.0001460616399442348</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>92.25803430933891</v>
+        <v>12.28596632661267</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001460616399442348</v>
+        <v>1.136284585298362</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.28596632661267</v>
+        <v>0.02204726965193014</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.136284585298362</v>
+        <v>3.157872126694738</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02204726965193014</v>
+        <v>0.959075907153105</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.157872126694738</v>
+        <v>1.462994155531086</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.959075907153105</v>
+        <v>41</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.462994155531086</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.487627608479164</v>
       </c>
     </row>
@@ -5676,72 +5628,66 @@
         <v>1.452797023655607e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.489792688078451</v>
+        <v>5.253716721652593e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.9055190159144528</v>
+        <v>6.75829873356331e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.253716721652593e-07</v>
+        <v>-0.03276688812543663</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.75829873356331e-06</v>
+        <v>0.1254017733272703</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03276688812543663</v>
+        <v>0.01679027978845784</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1254017733272703</v>
+        <v>1.858925500408034</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01679027978845784</v>
+        <v>2.269317371145217</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.84915767512089</v>
+        <v>4.147338639063836</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.269317371145217</v>
+        <v>2.601234575893437e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.147338639063836</v>
+        <v>186334203.8899514</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.601234575893437e-15</v>
+        <v>6.378288136036444e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>186334203.8899514</v>
+        <v>90.31599741491162</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.378288136036444e-07</v>
+        <v>0.0001634721744121043</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>90.31599741491162</v>
+        <v>10.06089419972462</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001634721744121043</v>
+        <v>1.457418096733584</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.06089419972462</v>
+        <v>0.01654691375772373</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.457418096733584</v>
+        <v>3.221031987355994</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01654691375772373</v>
+        <v>0.9595390294451547</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.221031987355994</v>
+        <v>1.474546483024359</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9595390294451547</v>
+        <v>32</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.474546483024359</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.4094790256750506</v>
       </c>
     </row>
@@ -5756,72 +5702,66 @@
         <v>1.395897161755676e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.600186689424447</v>
+        <v>5.253716721652593e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.387092776889656</v>
+        <v>6.753439517879212e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.253716721652593e-07</v>
+        <v>-0.03524636270131694</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.753439517879212e-06</v>
+        <v>0.127516433368817</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03524636270131694</v>
+        <v>0.01748737125055887</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.127516433368817</v>
+        <v>1.854265914329218</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01748737125055887</v>
+        <v>2.092251701577913</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.841073649508462</v>
+        <v>4.795342845225452</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.092251701577913</v>
+        <v>3.683578254165171e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.795342845225452</v>
+        <v>131812495.8405577</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.683578254165171e-15</v>
+        <v>9.008684735570668e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>131812495.8405577</v>
+        <v>64.00045583862578</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>9.008684735570668e-07</v>
+        <v>0.000129820454009013</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>64.00045583862578</v>
+        <v>8.244653701746261</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000129820454009013</v>
+        <v>1.486730008226767</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.244653701746261</v>
+        <v>0.008824456390335782</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.486730008226767</v>
+        <v>3.345869393410565</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008824456390335782</v>
+        <v>0.9608723092368336</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.345869393410565</v>
+        <v>1.518368676943808</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9608723092368336</v>
+        <v>32</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.518368676943808</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.418525638565636</v>
       </c>
     </row>
@@ -5836,72 +5776,66 @@
         <v>1.317763279924548e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.669024562831928</v>
+        <v>5.253716721652593e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.808388634768336</v>
+        <v>6.748584899920237e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.253716721652593e-07</v>
+        <v>-0.03532033609385302</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.748584899920237e-06</v>
+        <v>0.14099126718208</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03532033609385302</v>
+        <v>0.02110757047517686</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.14099126718208</v>
+        <v>1.838137906673407</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02110757047517686</v>
+        <v>2.057226515623842</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.817850287212764</v>
+        <v>4.464093744734604</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.057226515623842</v>
+        <v>5.261013381535193e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.464093744734604</v>
+        <v>94554843.61063662</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.261013381535193e-15</v>
+        <v>1.245660154725439e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>94554843.61063662</v>
+        <v>47.03671330587072</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.245660154725439e-06</v>
+        <v>0.0001121650195503476</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>47.03671330587072</v>
+        <v>7.654827444479045</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001121650195503476</v>
+        <v>1.21484617996919</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.654827444479045</v>
+        <v>0.006572464467740399</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.21484617996919</v>
+        <v>3.288207855528687</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006572464467740399</v>
+        <v>0.9603351369816501</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.288207855528687</v>
+        <v>1.525193216806262</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9603351369816501</v>
+        <v>32</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.525193216806262</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.4411135294706441</v>
       </c>
     </row>
@@ -5916,72 +5850,66 @@
         <v>1.229250195162327e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.644185807458373</v>
+        <v>5.233696899360252e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.876557095913791</v>
+        <v>6.744349151776295e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.233696899360252e-07</v>
+        <v>-0.03046298196474463</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.744349151776295e-06</v>
+        <v>0.1653164966994737</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03046298196474463</v>
+        <v>0.02824597747265935</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1653164966994737</v>
+        <v>1.775279380161803</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02824597747265935</v>
+        <v>1.814582105320051</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.734004485349121</v>
+        <v>5.943866321276854</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.814582105320051</v>
+        <v>8.385572149752706e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.943866321276854</v>
+        <v>60635067.98993894</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>8.385572149752706e-15</v>
+        <v>1.910269262473841e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>60635067.98993894</v>
+        <v>30.83049074950522</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.910269262473841e-06</v>
+        <v>0.0001152769638164229</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>30.83049074950522</v>
+        <v>7.783262818187722</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001152769638164229</v>
+        <v>1.261949794076198</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.783262818187722</v>
+        <v>0.006983383952068528</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.261949794076198</v>
+        <v>3.146616247602176</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006983383952068528</v>
+        <v>0.956576513887057</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.146616247602176</v>
+        <v>1.682757993099813</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.956576513887057</v>
+        <v>32</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.682757993099813</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.4404421600768468</v>
       </c>
     </row>
@@ -5996,72 +5924,66 @@
         <v>1.149838590643629e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.537307619834637</v>
+        <v>5.007636704792107e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.53484538922245</v>
+        <v>6.741096742709e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.007636704792107e-07</v>
+        <v>-0.02427556271221995</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.741096742709e-06</v>
+        <v>0.1806846063756495</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02427556271221995</v>
+        <v>0.03322972830156358</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1806846063756495</v>
+        <v>1.774198110733695</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03322972830156358</v>
+        <v>1.749286142139051</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.726984183702593</v>
+        <v>4.519661495369378</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.749286142139051</v>
+        <v>1.581542840909015e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.519661495369378</v>
+        <v>31557969.32664232</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.581542840909015e-14</v>
+        <v>3.665375448156146e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>31557969.32664232</v>
+        <v>15.75067099909511</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.665375448156146e-06</v>
+        <v>0.0001358766500367204</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>15.75067099909511</v>
+        <v>8.176941631426194</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001358766500367204</v>
+        <v>2.30776704044876</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.176941631426194</v>
+        <v>0.009085035452917698</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>2.30776704044876</v>
+        <v>3.252877763414471</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009085035452917698</v>
+        <v>0.9561271783121875</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.252877763414471</v>
+        <v>1.713661035461208</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9561271783121875</v>
+        <v>32</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.713661035461208</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3160017367513859</v>
       </c>
     </row>
@@ -6076,72 +5998,66 @@
         <v>1.087227472782262e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.406653241437816</v>
+        <v>4.661007307066097e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.033278575915622</v>
+        <v>6.738674506461924e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.661007307066097e-07</v>
+        <v>-0.01935642439329784</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.738674506461924e-06</v>
+        <v>0.1876895398095887</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.01935642439329784</v>
+        <v>0.03559461324847588</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1876895398095887</v>
+        <v>1.774289603443738</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03559461324847588</v>
+        <v>1.810658822709191</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.725550005359659</v>
+        <v>4.059192785078551</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.810658822709191</v>
+        <v>1.960710266713602e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.059192785078551</v>
+        <v>26996627.84034299</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.960710266713602e-14</v>
+        <v>4.324268194249917e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>26996627.84034299</v>
+        <v>14.29000768015089</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.324268194249917e-06</v>
+        <v>0.0001274909321942566</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>14.29000768015089</v>
+        <v>7.546490311505877</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001274909321942566</v>
+        <v>1.734871061728904</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.546490311505877</v>
+        <v>0.007260546885612174</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.734871061728904</v>
+        <v>3.136588339987822</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.007260546885612174</v>
+        <v>0.9557518081756801</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.136588339987822</v>
+        <v>1.725406063878437</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9557518081756801</v>
+        <v>22</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.725406063878437</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2265278242052446</v>
       </c>
     </row>
@@ -6156,72 +6072,66 @@
         <v>1.039633372506521e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.292064674170191</v>
+        <v>4.29513087314364e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.5885940120611344</v>
+        <v>6.736816132058626e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.29513087314364e-07</v>
+        <v>-0.01581436757248088</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.736816132058626e-06</v>
+        <v>0.1917171251828615</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.01581436757248088</v>
+        <v>0.03699692715983944</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1917171251828615</v>
+        <v>1.771046949878095</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03699692715983944</v>
+        <v>1.789119205831</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.710906372074645</v>
+        <v>4.033015078796441</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.789119205831</v>
+        <v>1.986246236266105e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.033015078796441</v>
+        <v>26453075.60658012</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.986246236266105e-14</v>
+        <v>4.391633587302382e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>26453075.60658012</v>
+        <v>13.8990601274045</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.391633587302382e-06</v>
+        <v>0.0001331995723304145</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>13.8990601274045</v>
+        <v>8.575471575698598</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001331995723304145</v>
+        <v>1.182582683692976</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.575471575698598</v>
+        <v>0.009795325087445066</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.182582683692976</v>
+        <v>2.874889669055365</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.009795325087445066</v>
+        <v>0.9551437849709391</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.874889669055365</v>
+        <v>1.730178758735114</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9551437849709391</v>
+        <v>22</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.730178758735114</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2077140623639283</v>
       </c>
     </row>
@@ -6236,72 +6146,66 @@
         <v>1.003886198885186e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.206575279577688</v>
+        <v>3.951024821556628e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.2755518846111693</v>
+        <v>6.735357648863308e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.951024821556628e-07</v>
+        <v>-0.01282167132616595</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.735357648863308e-06</v>
+        <v>0.1945315222898873</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01282167132616595</v>
+        <v>0.03799882974189362</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1945315222898873</v>
+        <v>1.778332152681551</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03799882974189362</v>
+        <v>1.74892290924812</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.715001805226256</v>
+        <v>4.03856776616704</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.74892290924812</v>
+        <v>1.980788151589849e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.03856776616704</v>
+        <v>26755645.73764256</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.980788151589849e-14</v>
+        <v>4.358037582779585e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>26755645.73764256</v>
+        <v>14.17976075905625</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.358037582779585e-06</v>
+        <v>0.0001416203453792409</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>14.17976075905625</v>
+        <v>9.101792061168439</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001416203453792409</v>
+        <v>1.254389083918912</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.101792061168439</v>
+        <v>0.0117322002759197</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.254389083918912</v>
+        <v>2.738383742324402</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0117322002759197</v>
+        <v>0.9555220007357925</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.738383742324402</v>
+        <v>1.723899971951627</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9555220007357925</v>
+        <v>27</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.723899971951627</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2010185948522341</v>
       </c>
     </row>
@@ -6316,72 +6220,66 @@
         <v>9.78327346171211e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.151637966167589</v>
+        <v>3.619116910099349e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.09584582088138749</v>
+        <v>6.734251474047523e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.619116910099349e-07</v>
+        <v>-0.009389493982756883</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.734251474047523e-06</v>
+        <v>0.1955188872926915</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.009389493982756883</v>
+        <v>0.03830746306661916</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1955188872926915</v>
+        <v>1.778431816256746</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03830746306661916</v>
+        <v>1.716616375522044</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.714348585841619</v>
+        <v>4.032182184913912</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.716616375522044</v>
+        <v>1.987066885296456e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.032182184913912</v>
+        <v>26095138.06770778</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.987066885296456e-14</v>
+        <v>4.459541042328837e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>26095138.06770778</v>
+        <v>13.53105576504787</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.459541042328837e-06</v>
+        <v>0.0001420721199626096</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>13.53105576504787</v>
+        <v>8.680385753677589</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001420721199626096</v>
+        <v>1.276579276198229</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.680385753677589</v>
+        <v>0.01070500592428237</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.276579276198229</v>
+        <v>2.825058948719163</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01070500592428237</v>
+        <v>0.9553737861831936</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.825058948719163</v>
+        <v>1.745739107734759</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9553737861831936</v>
+        <v>18</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.745739107734759</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1952745453484233</v>
       </c>
     </row>
@@ -6396,72 +6294,66 @@
         <v>9.633568090314181e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.126039773151511</v>
+        <v>3.403626829562054e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.02896778514816845</v>
+        <v>6.733557083576052e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.403626829562054e-07</v>
+        <v>-0.004747162361707098</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.733557083576052e-06</v>
+        <v>0.1936537357243274</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.004747162361707098</v>
+        <v>0.03751625611628852</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1936537357243274</v>
+        <v>1.770436247810592</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.03751625611628852</v>
+        <v>1.679174589403097</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.705274679348829</v>
+        <v>4.012658104840593</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.679174589403097</v>
+        <v>2.006450562882222e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.012658104840593</v>
+        <v>24876262.91866491</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.006450562882222e-14</v>
+        <v>4.646669436522607e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>24876262.91866491</v>
+        <v>12.41648705470973</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.646669436522607e-06</v>
+        <v>0.0001448307011268153</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>12.41648705470973</v>
+        <v>7.562954366271088</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001448307011268153</v>
+        <v>1.422573883892018</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.562954366271088</v>
+        <v>0.008284066814073485</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.422573883892018</v>
+        <v>2.957915548161581</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008284066814073485</v>
+        <v>0.952892528591946</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.957915548161581</v>
+        <v>1.743076962148301</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.952892528591946</v>
+        <v>18</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.743076962148301</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1819006581308644</v>
       </c>
     </row>
@@ -6838,7 +6730,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.676891473633998</v>
+        <v>1.706718157552532</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.505535893951166</v>
@@ -6927,7 +6819,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.718423375740531</v>
+        <v>1.738621130444355</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.376304498753993</v>
@@ -7016,7 +6908,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.747662758775437</v>
+        <v>1.762243674250213</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.444926937645907</v>
@@ -7105,7 +6997,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.747891941711012</v>
+        <v>1.765556888245142</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.624947971957555</v>
@@ -7194,7 +7086,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.759656660372292</v>
+        <v>1.774876825201836</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.516548816982969</v>
@@ -7283,7 +7175,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.795803717710244</v>
+        <v>1.809823693117759</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.571492162215433</v>
@@ -7372,7 +7264,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.775350891997561</v>
+        <v>1.79677215727076</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.523078312877458</v>
@@ -7461,7 +7353,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.843151571866536</v>
+        <v>1.849751067870669</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.868614053371429</v>
@@ -7550,7 +7442,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.845849764134389</v>
+        <v>1.840958873844011</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.874152657814627</v>
@@ -7639,7 +7531,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.845154417740499</v>
+        <v>1.84433341030244</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.86956619195644</v>
@@ -7728,7 +7620,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.851451465261178</v>
+        <v>1.847925940895452</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.981438476022849</v>
@@ -7817,7 +7709,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.854241363846558</v>
+        <v>1.847987741684898</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.007567468365327</v>
@@ -7906,7 +7798,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.853242238177363</v>
+        <v>1.838695222823162</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.860481150198952</v>
@@ -7995,7 +7887,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.855599892050208</v>
+        <v>1.838338729491904</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.0168609355489</v>
@@ -8084,7 +7976,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.855832867752178</v>
+        <v>1.834355990374164</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.999421972348624</v>
@@ -8173,7 +8065,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.851399089320837</v>
+        <v>1.827120995124921</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.965839537005833</v>
@@ -8262,7 +8154,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.853008691985423</v>
+        <v>1.833371642453369</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.952586827511003</v>
@@ -8351,7 +8243,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.850534218917108</v>
+        <v>1.831480720657562</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.921552310409382</v>
@@ -8440,7 +8332,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.85493943340906</v>
+        <v>1.839258949444426</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.876357251457839</v>
@@ -8529,7 +8421,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.85518984717172</v>
+        <v>1.838780605014368</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.045019798087364</v>
@@ -8618,7 +8510,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.891553982533794</v>
+        <v>1.862552401843915</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.809911436428853</v>
@@ -8707,7 +8599,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.910404636525663</v>
+        <v>1.877696448612771</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.498571379270553</v>
@@ -8796,7 +8688,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.907582182461326</v>
+        <v>1.877630973052128</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.461385753249984</v>
@@ -8885,7 +8777,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.908915880781983</v>
+        <v>1.88547466738022</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.246970347856484</v>
@@ -8974,7 +8866,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.910370113179932</v>
+        <v>1.888565042041479</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.678231821729981</v>
@@ -9063,7 +8955,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.898574355550607</v>
+        <v>1.881032905152629</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.211072745298137</v>
@@ -9152,7 +9044,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.892660012341682</v>
+        <v>1.876618522708023</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.44905701006259</v>
@@ -9241,7 +9133,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.896032169679583</v>
+        <v>1.88610706182405</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.720730740599379</v>
@@ -9330,7 +9222,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.893123173551666</v>
+        <v>1.884712764513324</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.245868461794935</v>
@@ -9419,7 +9311,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.893593004191868</v>
+        <v>1.886074384318755</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.680944217063308</v>
@@ -9508,7 +9400,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.889209005549159</v>
+        <v>1.886929861671449</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.239528042408745</v>
@@ -9597,7 +9489,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.892180240391325</v>
+        <v>1.887443956514677</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.465928806454033</v>
@@ -9686,7 +9578,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.896902969778105</v>
+        <v>1.891782882177475</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.473653887649344</v>
@@ -9775,7 +9667,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.897859304641943</v>
+        <v>1.88744904985868</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.878726648879048</v>
@@ -9864,7 +9756,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.891350996314793</v>
+        <v>1.882965494621925</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.240740435216513</v>
@@ -9953,7 +9845,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.881690732455457</v>
+        <v>1.867850803642793</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.538117880262172</v>
@@ -10042,7 +9934,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.885034223620479</v>
+        <v>1.871692733908932</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.997231382322327</v>
@@ -10131,7 +10023,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.854244399732716</v>
+        <v>1.84324179477591</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.950627936609863</v>
@@ -10220,7 +10112,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.840859043339675</v>
+        <v>1.827970990653507</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.202254640480394</v>
@@ -10309,7 +10201,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.829386717525582</v>
+        <v>1.810923727935288</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.760829742720885</v>
@@ -10398,7 +10290,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.836703720318485</v>
+        <v>1.813134966883756</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.095710406879618</v>
@@ -10487,7 +10379,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.792841025349185</v>
+        <v>1.77798531651853</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.608399552351129</v>
@@ -10576,7 +10468,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.776568156369763</v>
+        <v>1.759220712919807</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.578938580365871</v>
@@ -10665,7 +10557,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.778667983791784</v>
+        <v>1.757798085263891</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.603561897483697</v>
@@ -10754,7 +10646,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.780299366265225</v>
+        <v>1.754165224416314</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.536739519290063</v>
@@ -10843,7 +10735,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.78721129608706</v>
+        <v>1.748165115343083</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.60727659903942</v>
@@ -10932,7 +10824,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.781935627640633</v>
+        <v>1.744824515490192</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.511882296943968</v>
@@ -11021,7 +10913,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.781980590064999</v>
+        <v>1.744140086996075</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.689415595181017</v>
@@ -11110,7 +11002,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.78691896146097</v>
+        <v>1.74541845830114</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.523134305317908</v>
@@ -11199,7 +11091,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.78884613631448</v>
+        <v>1.747068200647355</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.51343586592697</v>
@@ -11288,7 +11180,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.786563534563655</v>
+        <v>1.745960843475332</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.638045666912215</v>
@@ -11377,7 +11269,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.735459831548796</v>
+        <v>1.704590899399614</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.609130657074624</v>
@@ -11466,7 +11358,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.764866055506846</v>
+        <v>1.731626879939742</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.626602814613049</v>
@@ -11555,7 +11447,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.767937064753157</v>
+        <v>1.735934277854977</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.479294966022984</v>
@@ -11644,7 +11536,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.778705901159212</v>
+        <v>1.748538079130353</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.576571010658931</v>
@@ -11733,7 +11625,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.783517570557886</v>
+        <v>1.749503863595093</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.539994897380222</v>
@@ -11822,7 +11714,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.813487742991287</v>
+        <v>1.772391771988392</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.582371246286027</v>
@@ -11911,7 +11803,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.813476338988398</v>
+        <v>1.771248700154851</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.596065459007279</v>
@@ -12000,7 +11892,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.804466232280645</v>
+        <v>1.765788512037604</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.53103891944205</v>
@@ -12089,7 +11981,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.800822237680628</v>
+        <v>1.767503891394658</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.578569148734724</v>
@@ -12178,7 +12070,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.80163498461787</v>
+        <v>1.774840196463705</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.451004496261012</v>
@@ -12464,7 +12356,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.661263005088784</v>
+        <v>1.673646008607436</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.944072134691885</v>
@@ -12553,7 +12445,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.66882927091369</v>
+        <v>1.684209668036192</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.48355682659045</v>
@@ -12642,7 +12534,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.659925479991225</v>
+        <v>1.668365393419663</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.851389084804787</v>
@@ -12731,7 +12623,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.653771206380341</v>
+        <v>1.663280835992847</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.85735864463751</v>
@@ -12820,7 +12712,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.658521524634045</v>
+        <v>1.666771256618927</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.664741137721183</v>
@@ -12909,7 +12801,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.626188448188002</v>
+        <v>1.640448995490383</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.387720927452937</v>
@@ -12998,7 +12890,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.605364401886685</v>
+        <v>1.609529590404026</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.151740839798996</v>
@@ -13087,7 +12979,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.59025884227542</v>
+        <v>1.594773524946585</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.897269703197684</v>
@@ -13176,7 +13068,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.555318009128234</v>
+        <v>1.56654739670094</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.017184379268308</v>
@@ -13265,7 +13157,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.550233711837617</v>
+        <v>1.563646832317787</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.971849814967098</v>
@@ -13354,7 +13246,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.539854786267309</v>
+        <v>1.562615727911346</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.036091412671612</v>
@@ -13443,7 +13335,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.544534816281487</v>
+        <v>1.563768472580648</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.947956792945132</v>
@@ -13532,7 +13424,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.531636565461793</v>
+        <v>1.55653544216302</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.983079264201445</v>
@@ -13621,7 +13513,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.515383225867682</v>
+        <v>1.538535472382596</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.826352731042169</v>
@@ -13710,7 +13602,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.517943871871229</v>
+        <v>1.541566276804249</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.738144744662612</v>
@@ -13799,7 +13691,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.516402238922887</v>
+        <v>1.54075004987004</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.660388998916136</v>
@@ -13888,7 +13780,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.522263646705398</v>
+        <v>1.547553006727651</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.807960425920669</v>
@@ -13977,7 +13869,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.521570182018154</v>
+        <v>1.547048294520122</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.459344103709931</v>
@@ -14066,7 +13958,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.539057586860707</v>
+        <v>1.562131592780422</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.561384430405548</v>
@@ -14155,7 +14047,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.558536109008346</v>
+        <v>1.579326195129069</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.583283414191742</v>
@@ -14244,7 +14136,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.564346568931024</v>
+        <v>1.584305952024017</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.634256108082412</v>
@@ -14333,7 +14225,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.568096665699782</v>
+        <v>1.58535039144938</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.425219576028602</v>
@@ -14422,7 +14314,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.592110448884818</v>
+        <v>1.608799134345544</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.656080474753711</v>
@@ -14511,7 +14403,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.607972091459978</v>
+        <v>1.620768400214704</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.572608361676249</v>
@@ -14600,7 +14492,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.615478579235783</v>
+        <v>1.629282803018602</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.629742994253559</v>
@@ -14689,7 +14581,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.622110704332671</v>
+        <v>1.633735655308711</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.690384865458557</v>
@@ -14778,7 +14670,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.63141226781096</v>
+        <v>1.644540782205803</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.49092516991497</v>
@@ -14867,7 +14759,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.64806383600499</v>
+        <v>1.653467533074032</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.678587522248931</v>
@@ -14956,7 +14848,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.677151683814642</v>
+        <v>1.678542757848918</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.769354044552507</v>
@@ -15045,7 +14937,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.653329817529251</v>
+        <v>1.655426486932221</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.094992261849993</v>
@@ -15134,7 +15026,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.65791027580749</v>
+        <v>1.657585154193655</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.118675120230409</v>
@@ -15223,7 +15115,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.653858338552397</v>
+        <v>1.655895503057238</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.11760351684864</v>
@@ -15312,7 +15204,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.651573802160461</v>
+        <v>1.656222636727642</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.845809146435272</v>
@@ -15401,7 +15293,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.646134522627812</v>
+        <v>1.655794284771108</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.020454128058768</v>
@@ -15490,7 +15382,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.625395678218686</v>
+        <v>1.637685048114236</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.038329880185206</v>
@@ -15579,7 +15471,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600824177893373</v>
+        <v>1.618397702974872</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.069070686402416</v>
@@ -15668,7 +15560,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588308596199722</v>
+        <v>1.606932825405427</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.933681377666574</v>
@@ -15757,7 +15649,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.574783527872777</v>
+        <v>1.597973291126464</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.101541895019697</v>
@@ -15846,7 +15738,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.579228358937792</v>
+        <v>1.602944245547295</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.172988049298607</v>
@@ -15935,7 +15827,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.577210162524362</v>
+        <v>1.59754915865258</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.932705151280232</v>
@@ -16024,7 +15916,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.567602214507328</v>
+        <v>1.585079766112655</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.109102329552261</v>
@@ -16113,7 +16005,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.563441619124866</v>
+        <v>1.582606897772446</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.97068450735095</v>
@@ -16202,7 +16094,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.568288728331241</v>
+        <v>1.582984284173245</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.908412957048805</v>
@@ -16291,7 +16183,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.570300326341358</v>
+        <v>1.589350810622055</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.86999404967746</v>
@@ -16380,7 +16272,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.589847321568463</v>
+        <v>1.606842117370169</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.170950110499268</v>
@@ -16469,7 +16361,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.591800580920606</v>
+        <v>1.610287929003192</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.75367453857687</v>
@@ -16558,7 +16450,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.593215327107615</v>
+        <v>1.610853210790556</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.685233692362361</v>
@@ -16647,7 +16539,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.59942857340583</v>
+        <v>1.615779995445672</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.822467798494888</v>
@@ -16736,7 +16628,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.609940314874832</v>
+        <v>1.623669808256234</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.618104569404974</v>
@@ -16825,7 +16717,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.610437196183507</v>
+        <v>1.621544262039016</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.718152303584273</v>
@@ -16914,7 +16806,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.626318737154376</v>
+        <v>1.630732795119528</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.147764462028067</v>
@@ -17003,7 +16895,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.628317382114677</v>
+        <v>1.626903067573945</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.165746569061542</v>
@@ -17092,7 +16984,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.638279693536466</v>
+        <v>1.635341159580612</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.670092381065365</v>
@@ -17181,7 +17073,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.630807271192731</v>
+        <v>1.630281880585861</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.935875859160429</v>
@@ -17270,7 +17162,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.641293092046222</v>
+        <v>1.646824532034701</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.2027901421075</v>
@@ -17359,7 +17251,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.644828740542431</v>
+        <v>1.653012410314418</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.141521980187547</v>
@@ -17448,7 +17340,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.645799345525742</v>
+        <v>1.650924912636701</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.353689503978221</v>
@@ -17537,7 +17429,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.651240503414057</v>
+        <v>1.655032890342828</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.91098500293197</v>
@@ -17626,7 +17518,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.654251126129173</v>
+        <v>1.660817756280286</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.476771837978292</v>
@@ -17715,7 +17607,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.638546714001235</v>
+        <v>1.654456904981961</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.158276922088008</v>
@@ -17804,7 +17696,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.639743097564937</v>
+        <v>1.64836348065808</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.05350370855575</v>
@@ -18090,7 +17982,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.60587484261223</v>
+        <v>1.644289256514336</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.014084042101879</v>
@@ -18179,7 +18071,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.618234369165817</v>
+        <v>1.654697791281751</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.575267432073143</v>
@@ -18268,7 +18160,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.630975909100575</v>
+        <v>1.666673495421016</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.965886485894642</v>
@@ -18357,7 +18249,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.651918632214456</v>
+        <v>1.684827392014372</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.056618428471229</v>
@@ -18446,7 +18338,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.651391164082934</v>
+        <v>1.67957223556338</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.095344099015728</v>
@@ -18535,7 +18427,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.62479468322571</v>
+        <v>1.658616420520711</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.808043365438639</v>
@@ -18624,7 +18516,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.60290473483492</v>
+        <v>1.633156853182335</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.052535016279462</v>
@@ -18713,7 +18605,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.6413771729178</v>
+        <v>1.670293419791295</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.733139989783368</v>
@@ -18802,7 +18694,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.645961529146571</v>
+        <v>1.673285066772178</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.772501337751301</v>
@@ -18891,7 +18783,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.673280152452653</v>
+        <v>1.699618138707025</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.941335309909133</v>
@@ -18980,7 +18872,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.662534750212871</v>
+        <v>1.692028757724119</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.966293388835296</v>
@@ -19069,7 +18961,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.666834976882366</v>
+        <v>1.700064473792339</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.028552716276749</v>
@@ -19158,7 +19050,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.668027920962592</v>
+        <v>1.698433339362644</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.999905731690568</v>
@@ -19247,7 +19139,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.665299224838321</v>
+        <v>1.695149880965396</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.153753125780928</v>
@@ -19336,7 +19228,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.677449946331397</v>
+        <v>1.705863675283511</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.044598630779758</v>
@@ -19425,7 +19317,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.678019733258768</v>
+        <v>1.699177535239316</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.062893431067274</v>
@@ -19514,7 +19406,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.677047265574757</v>
+        <v>1.697344126235276</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.709648562353105</v>
@@ -19603,7 +19495,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.669789920823873</v>
+        <v>1.687321437043724</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.061742877883231</v>
@@ -19692,7 +19584,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.671419948702705</v>
+        <v>1.690428281804682</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.860246752485601</v>
@@ -19781,7 +19673,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.676956659983023</v>
+        <v>1.694019562945977</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.119234008660449</v>
@@ -19870,7 +19762,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.71902896597825</v>
+        <v>1.726680910488322</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.005021418093466</v>
@@ -19959,7 +19851,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.73198909689402</v>
+        <v>1.738482477891218</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.280018832646137</v>
@@ -20048,7 +19940,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.723212903559792</v>
+        <v>1.730806228734793</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.125277392537008</v>
@@ -20137,7 +20029,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.72910731672751</v>
+        <v>1.731594229292201</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.07710761461271</v>
@@ -20226,7 +20118,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.712907962159894</v>
+        <v>1.720588553842184</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.192575223047881</v>
@@ -20315,7 +20207,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.738875394751844</v>
+        <v>1.740714068426272</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.181723052950941</v>
@@ -20404,7 +20296,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.731969784158127</v>
+        <v>1.730521155937415</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.000306665705596</v>
@@ -20493,7 +20385,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.737136597703158</v>
+        <v>1.739010258851237</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.175335945146544</v>
@@ -20582,7 +20474,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.737898580705796</v>
+        <v>1.740684690793308</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.176358784077</v>
@@ -20671,7 +20563,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.735548740336458</v>
+        <v>1.740524455659708</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.261541619777908</v>
@@ -20760,7 +20652,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.723641910982411</v>
+        <v>1.735443222430381</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.433624614540252</v>
@@ -20849,7 +20741,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.730183460107551</v>
+        <v>1.740929734180952</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.453155895849291</v>
@@ -20938,7 +20830,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.749501363998124</v>
+        <v>1.758538998031903</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.617076502064292</v>
@@ -21027,7 +20919,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.744528520471087</v>
+        <v>1.756997393235208</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.015465713106306</v>
@@ -21116,7 +21008,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.744043862083761</v>
+        <v>1.761465371723617</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.587430510744587</v>
@@ -21205,7 +21097,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.728222056725155</v>
+        <v>1.745130837778713</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.289724607868572</v>
@@ -21294,7 +21186,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.720701714077179</v>
+        <v>1.739685048392159</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.654974874616259</v>
@@ -21383,7 +21275,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.704947070242177</v>
+        <v>1.724789683267692</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.060701401675241</v>
@@ -21472,7 +21364,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.696775561724665</v>
+        <v>1.715105208949219</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.610402698833076</v>
@@ -21561,7 +21453,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.695140955831361</v>
+        <v>1.714639801177083</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.292400209544242</v>
@@ -21650,7 +21542,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.68861680363034</v>
+        <v>1.700902835856259</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.352898839395004</v>
@@ -21739,7 +21631,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.684701179998477</v>
+        <v>1.698044405015093</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.01434120279281</v>
@@ -21828,7 +21720,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.674897567882301</v>
+        <v>1.685053188632937</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.195074074992291</v>
@@ -21917,7 +21809,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.666857296742083</v>
+        <v>1.676628956039698</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.882641019920485</v>
@@ -22006,7 +21898,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.675326731665589</v>
+        <v>1.682336615313606</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.128780279451421</v>
@@ -22095,7 +21987,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.682115074995119</v>
+        <v>1.68607902555797</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.036187216214588</v>
@@ -22184,7 +22076,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.687948171203716</v>
+        <v>1.689315592796432</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.182170376644765</v>
@@ -22273,7 +22165,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.680318517108951</v>
+        <v>1.681949697780943</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.083285732622415</v>
@@ -22362,7 +22254,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.685283765582156</v>
+        <v>1.68328573400324</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.271907945664342</v>
@@ -22451,7 +22343,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.705542040119325</v>
+        <v>1.697211551310659</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.041732565811448</v>
@@ -22540,7 +22432,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.708167906562609</v>
+        <v>1.701296161328787</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.21624921466087</v>
@@ -22629,7 +22521,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.692203818768317</v>
+        <v>1.687186220954519</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.935967887159761</v>
@@ -22718,7 +22610,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.716498488862336</v>
+        <v>1.707325676568193</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.309723543551889</v>
@@ -22807,7 +22699,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.721087485261015</v>
+        <v>1.708353087172453</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.993789891878999</v>
@@ -22896,7 +22788,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.719407850211622</v>
+        <v>1.717320911176773</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.290170253288058</v>
@@ -22985,7 +22877,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.701235006341029</v>
+        <v>1.705122785009176</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.013774117757062</v>
@@ -23074,7 +22966,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.717468706374436</v>
+        <v>1.717833696928132</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.226308255817396</v>
@@ -23163,7 +23055,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.727340538196583</v>
+        <v>1.725131490003226</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.848765054847629</v>
@@ -23252,7 +23144,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.728105277502288</v>
+        <v>1.723963281221303</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.189474348951048</v>
@@ -23341,7 +23233,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.722618564383466</v>
+        <v>1.720728005244734</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.107032780762273</v>
@@ -23430,7 +23322,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.726982894519944</v>
+        <v>1.727487810487666</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.148127196023262</v>
@@ -23716,7 +23608,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.747175238790348</v>
+        <v>1.746585648536225</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.342935232839998</v>
@@ -23805,7 +23697,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.767426849310378</v>
+        <v>1.765814340746112</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.848357347889876</v>
@@ -23894,7 +23786,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.768083816909926</v>
+        <v>1.763017665867965</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.017360795172904</v>
@@ -23983,7 +23875,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.753017922068215</v>
+        <v>1.744045733360218</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.022183000774029</v>
@@ -24072,7 +23964,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.744823398986962</v>
+        <v>1.734002494601514</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.628383734874971</v>
@@ -24161,7 +24053,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.747174238403082</v>
+        <v>1.733660590917984</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.168118482235995</v>
@@ -24250,7 +24142,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.73685225084916</v>
+        <v>1.718120543553488</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.615777269663355</v>
@@ -24339,7 +24231,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.741603129795052</v>
+        <v>1.724616189539978</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.45305246903478</v>
@@ -24428,7 +24320,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.743636868873075</v>
+        <v>1.719684267222731</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.688352469195307</v>
@@ -24517,7 +24409,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.746486706056882</v>
+        <v>1.72263954293486</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.368559892587886</v>
@@ -24606,7 +24498,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.752891312008267</v>
+        <v>1.728115545769175</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.48525497023916</v>
@@ -24695,7 +24587,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.759187783339829</v>
+        <v>1.729998076897129</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.338821253793455</v>
@@ -24784,7 +24676,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.753214571687904</v>
+        <v>1.721432670063467</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.145836848554313</v>
@@ -24873,7 +24765,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.748286300138928</v>
+        <v>1.720130112455105</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.143727483907437</v>
@@ -24962,7 +24854,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.743986481269266</v>
+        <v>1.71764583969031</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.316658623027487</v>
@@ -25051,7 +24943,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.747202437329719</v>
+        <v>1.715723364488681</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.815580354516874</v>
@@ -25140,7 +25032,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.751743999705815</v>
+        <v>1.717427029423438</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.900734634184168</v>
@@ -25229,7 +25121,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.754482380188305</v>
+        <v>1.716459670766675</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.272067229753625</v>
@@ -25318,7 +25210,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.762381298643901</v>
+        <v>1.727679483137109</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.293589829974242</v>
@@ -25407,7 +25299,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.772189546001876</v>
+        <v>1.736203986113003</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.132433846804625</v>
@@ -25496,7 +25388,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.776336880453213</v>
+        <v>1.740636772831903</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.944867923739512</v>
@@ -25585,7 +25477,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.775875713645691</v>
+        <v>1.740695598568668</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.72967038001339</v>
@@ -25674,7 +25566,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.786296105046705</v>
+        <v>1.749543668971564</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.000946111526994</v>
@@ -25763,7 +25655,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.789570256612522</v>
+        <v>1.758078896641815</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.217477857779657</v>
@@ -25852,7 +25744,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.789766454666103</v>
+        <v>1.757081803201394</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.017471671027825</v>
@@ -25941,7 +25833,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.789569953995926</v>
+        <v>1.755448273330255</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.999345783031489</v>
@@ -26030,7 +25922,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.784483887370267</v>
+        <v>1.75076129731984</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.31762091040662</v>
@@ -26119,7 +26011,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.788282134242873</v>
+        <v>1.761490083258824</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.708812037645852</v>
@@ -26208,7 +26100,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.787539710065503</v>
+        <v>1.754129855418964</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.552894243622346</v>
@@ -26297,7 +26189,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.790770200989275</v>
+        <v>1.758183927328262</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.522665203137002</v>
@@ -26386,7 +26278,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.778012493323229</v>
+        <v>1.747282814590835</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.939844906034917</v>
@@ -26475,7 +26367,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.777264327781069</v>
+        <v>1.745060576298722</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.924570009259738</v>
@@ -26564,7 +26456,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.778479068534693</v>
+        <v>1.747303006159372</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.542080819440463</v>
@@ -26653,7 +26545,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.774823186688332</v>
+        <v>1.740501824851071</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.801864745410105</v>
@@ -26742,7 +26634,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.765341279533012</v>
+        <v>1.727380731291537</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.672587321846086</v>
@@ -26831,7 +26723,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.759869130988533</v>
+        <v>1.727107666254696</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.888449055468776</v>
@@ -26920,7 +26812,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.772445311121769</v>
+        <v>1.737476586577888</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.775114054633453</v>
@@ -27009,7 +26901,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.759146442061013</v>
+        <v>1.723855782535304</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.571810246149753</v>
@@ -27098,7 +26990,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.758117469345061</v>
+        <v>1.719300494995537</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.394328432526105</v>
@@ -27187,7 +27079,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.751752717343466</v>
+        <v>1.714761929018026</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.489892931957165</v>
@@ -27276,7 +27168,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.752905990119466</v>
+        <v>1.714526448968133</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.199058485338254</v>
@@ -27365,7 +27257,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.745837779792612</v>
+        <v>1.709399884204595</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.195050767518963</v>
@@ -27454,7 +27346,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.740856050550791</v>
+        <v>1.694905845895776</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.636973101975833</v>
@@ -27543,7 +27435,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.753491095473299</v>
+        <v>1.708821580326363</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.657430395763708</v>
@@ -27632,7 +27524,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.749106003910617</v>
+        <v>1.697346682099578</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.519152914111359</v>
@@ -27721,7 +27613,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.753658382573594</v>
+        <v>1.704132176490746</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.281683846825782</v>
@@ -27810,7 +27702,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.718201461264967</v>
+        <v>1.678072100796541</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.222660253361203</v>
@@ -27899,7 +27791,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.713943207032012</v>
+        <v>1.676331404096146</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.816540977800821</v>
@@ -27988,7 +27880,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.712618124450554</v>
+        <v>1.678140000415848</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.014956985491621</v>
@@ -28077,7 +27969,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.722187187839162</v>
+        <v>1.697366031468603</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.827624642328573</v>
@@ -28166,7 +28058,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.718039052788565</v>
+        <v>1.690873160875492</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.824997873154619</v>
@@ -28255,7 +28147,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.724057604930276</v>
+        <v>1.697179038031068</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.843516988026265</v>
@@ -28344,7 +28236,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.716678832232901</v>
+        <v>1.69250171150403</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.902591692416185</v>
@@ -28433,7 +28325,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.714611208312375</v>
+        <v>1.690185274918267</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.053578835020206</v>
@@ -28522,7 +28414,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.719792674145747</v>
+        <v>1.6980110313503</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.869529364689639</v>
@@ -28611,7 +28503,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.727706604588993</v>
+        <v>1.705517233346274</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.99640894552757</v>
@@ -28700,7 +28592,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.728080220322537</v>
+        <v>1.706116049502783</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.827384588155323</v>
@@ -28789,7 +28681,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.728966522237119</v>
+        <v>1.708326736777389</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.998966745966321</v>
@@ -28878,7 +28770,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.731145640036037</v>
+        <v>1.712920172747282</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.998817201367322</v>
@@ -28967,7 +28859,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.733027297038359</v>
+        <v>1.724691065841512</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.179538112920101</v>
@@ -29056,7 +28948,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.751842688448094</v>
+        <v>1.74028703028935</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.531468405423673</v>
@@ -29342,7 +29234,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.671138400468188</v>
+        <v>1.671564703950512</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.049172600997458</v>
@@ -29431,7 +29323,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.674261849564129</v>
+        <v>1.672476246123451</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.015578888742708</v>
@@ -29520,7 +29412,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.674326926778827</v>
+        <v>1.673754895546972</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.89988943711424</v>
@@ -29609,7 +29501,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.664302363353256</v>
+        <v>1.662559643744206</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.824725840283906</v>
@@ -29698,7 +29590,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.671682932876122</v>
+        <v>1.66566285029611</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.922652041812222</v>
@@ -29787,7 +29679,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.67856328699723</v>
+        <v>1.671447126256639</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.286627206847367</v>
@@ -29876,7 +29768,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.679288748200713</v>
+        <v>1.666001960418913</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.80977980975645</v>
@@ -29965,7 +29857,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.697419710861265</v>
+        <v>1.677164731330681</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.788849703493673</v>
@@ -30054,7 +29946,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.700077556661096</v>
+        <v>1.677202731522734</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.103568701436337</v>
@@ -30143,7 +30035,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.697953692310888</v>
+        <v>1.677531304482238</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.269131026202423</v>
@@ -30232,7 +30124,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.689084336641401</v>
+        <v>1.673020626587912</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.215286148698859</v>
@@ -30321,7 +30213,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.693930362134687</v>
+        <v>1.681736444622326</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.532577094909225</v>
@@ -30410,7 +30302,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.681055238082654</v>
+        <v>1.681911969435492</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.071188637873586</v>
@@ -30499,7 +30391,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.676408609718679</v>
+        <v>1.676484047061166</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.018899932003</v>
@@ -30588,7 +30480,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.683225018457092</v>
+        <v>1.682392315212474</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.085379300286265</v>
@@ -30677,7 +30569,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.68315385349991</v>
+        <v>1.67812854897655</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.024730724191912</v>
@@ -30766,7 +30658,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.690602960657121</v>
+        <v>1.687257049180981</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.15516049487757</v>
@@ -30855,7 +30747,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.694624263907391</v>
+        <v>1.686989064964856</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.003322600251901</v>
@@ -30944,7 +30836,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.69421341884851</v>
+        <v>1.691698867234857</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.089127775165969</v>
@@ -31033,7 +30925,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.686638596024348</v>
+        <v>1.684012721839941</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.851541244965736</v>
@@ -31122,7 +31014,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.690959202321191</v>
+        <v>1.684957552767888</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.825083938782502</v>
@@ -31211,7 +31103,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.688742244871411</v>
+        <v>1.683008242952297</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.002591544049865</v>
@@ -31300,7 +31192,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.673737300617119</v>
+        <v>1.669827023203684</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.967548905431384</v>
@@ -31389,7 +31281,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.661974069423974</v>
+        <v>1.656714307199731</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.760706041325296</v>
@@ -31478,7 +31370,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.651348215173015</v>
+        <v>1.650818540167768</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.932490452512756</v>
@@ -31567,7 +31459,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.650654385508742</v>
+        <v>1.648702994965213</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.935418137776342</v>
@@ -31656,7 +31548,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.654923545556376</v>
+        <v>1.648973470215134</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.963738885937839</v>
@@ -31745,7 +31637,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.662274328469166</v>
+        <v>1.64143976930286</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.206206948533979</v>
@@ -31834,7 +31726,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.64758693947288</v>
+        <v>1.632736636713947</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.228735549731244</v>
@@ -31923,7 +31815,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.63683244735794</v>
+        <v>1.626996266826894</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.37906333125427</v>
@@ -32012,7 +31904,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.638174003776215</v>
+        <v>1.625902780300988</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.297431093079444</v>
@@ -32101,7 +31993,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.629213887997121</v>
+        <v>1.617677657763116</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.519131888412285</v>
@@ -32190,7 +32082,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.62538307355599</v>
+        <v>1.61501013062413</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.44271952309923</v>
@@ -32279,7 +32171,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.619994742778145</v>
+        <v>1.606851032644483</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.332149790321164</v>
@@ -32368,7 +32260,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.616890350522511</v>
+        <v>1.604979927909791</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.273739204448392</v>
@@ -32457,7 +32349,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.606822372950026</v>
+        <v>1.594512460764499</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.292969854987135</v>
@@ -32546,7 +32438,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.616946095300981</v>
+        <v>1.605967072985054</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.531149892117516</v>
@@ -32635,7 +32527,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.617752339818099</v>
+        <v>1.606938304543215</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.195534545046077</v>
@@ -32724,7 +32616,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.628323838959697</v>
+        <v>1.611039492566349</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.068455726500332</v>
@@ -32813,7 +32705,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.626122489403911</v>
+        <v>1.609167415560527</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.264946928844615</v>
@@ -32902,7 +32794,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.607825902160786</v>
+        <v>1.594422620578955</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.147080154460346</v>
@@ -32991,7 +32883,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.595260179673464</v>
+        <v>1.583924959601437</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.178562847125014</v>
@@ -33080,7 +32972,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.604887285462566</v>
+        <v>1.594333286404647</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.149487835076597</v>
@@ -33169,7 +33061,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.611609348063905</v>
+        <v>1.598813336589998</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.931629443866413</v>
@@ -33258,7 +33150,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.618249147354859</v>
+        <v>1.60082992373282</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.179314290493921</v>
@@ -33347,7 +33239,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.611858252420321</v>
+        <v>1.596602098153973</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.131722926568705</v>
@@ -33436,7 +33328,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.60082771387513</v>
+        <v>1.590568511801906</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.183706266096971</v>
@@ -33525,7 +33417,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.600174964285123</v>
+        <v>1.589545757079669</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.987193104175188</v>
@@ -33614,7 +33506,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.603968367666342</v>
+        <v>1.592606280708568</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.212493450486379</v>
@@ -33703,7 +33595,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.610139408665679</v>
+        <v>1.599756379736671</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.838990693575166</v>
@@ -33792,7 +33684,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.626145731527925</v>
+        <v>1.617933223565091</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.092277710937872</v>
@@ -33881,7 +33773,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.617808617935838</v>
+        <v>1.611399162139922</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.203144339849108</v>
@@ -33970,7 +33862,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.624563435878845</v>
+        <v>1.613401361342359</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.879263027561526</v>
@@ -34059,7 +33951,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.613953680667649</v>
+        <v>1.613695887115618</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.934686584103273</v>
@@ -34148,7 +34040,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.62352519317738</v>
+        <v>1.621223215258498</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.76929491388099</v>
@@ -34237,7 +34129,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.637970054024737</v>
+        <v>1.63401466597791</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.804118388141907</v>
@@ -34326,7 +34218,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.647309365602477</v>
+        <v>1.640129476017666</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.757375803860842</v>
@@ -34415,7 +34307,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.641743408297097</v>
+        <v>1.633193514527235</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.935734178418477</v>
@@ -34504,7 +34396,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.632148007026725</v>
+        <v>1.622844872130712</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.881153384289779</v>
@@ -34593,7 +34485,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.620488280558674</v>
+        <v>1.616269431184453</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.863285671256017</v>
@@ -34682,7 +34574,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.623416526325027</v>
+        <v>1.619738333578254</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.716358866813044</v>
@@ -34968,7 +34860,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.555750889166203</v>
+        <v>1.582816643149397</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.342999079427824</v>
@@ -35057,7 +34949,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.595347562681057</v>
+        <v>1.616663991619979</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.133342997355071</v>
@@ -35146,7 +35038,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.633245827391574</v>
+        <v>1.652926491767974</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.255165861692022</v>
@@ -35235,7 +35127,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.640204190766686</v>
+        <v>1.653675221808498</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.299595818774042</v>
@@ -35324,7 +35216,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.656956215991342</v>
+        <v>1.667345767667471</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.400707402520572</v>
@@ -35413,7 +35305,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.680489625714054</v>
+        <v>1.686426947409366</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.387290143720516</v>
@@ -35502,7 +35394,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.655787361644522</v>
+        <v>1.664103024459632</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.277982362123506</v>
@@ -35591,7 +35483,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.710110506005492</v>
+        <v>1.710683056102906</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.844126178997534</v>
@@ -35680,7 +35572,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.707163058618782</v>
+        <v>1.707282870776154</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.721289552141804</v>
@@ -35769,7 +35661,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.712627461139324</v>
+        <v>1.717284617353191</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.690105488805941</v>
@@ -35858,7 +35750,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.711987387232387</v>
+        <v>1.712557395884864</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.652453906927208</v>
@@ -35947,7 +35839,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.723874643116483</v>
+        <v>1.721740526355214</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.848012952102475</v>
@@ -36036,7 +35928,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.735725834136169</v>
+        <v>1.734350916024562</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.782582105438707</v>
@@ -36125,7 +36017,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.73048554348442</v>
+        <v>1.728819286636447</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.700310639744436</v>
@@ -36214,7 +36106,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.729304969372769</v>
+        <v>1.722859202492269</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.626974443975066</v>
@@ -36303,7 +36195,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.726719533172566</v>
+        <v>1.714768060183632</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.772814836695023</v>
@@ -36392,7 +36284,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.718001301792133</v>
+        <v>1.707961544317511</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.715159841481254</v>
@@ -36481,7 +36373,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.71211715709967</v>
+        <v>1.698241305366886</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.649072705210509</v>
@@ -36570,7 +36462,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.71483676909937</v>
+        <v>1.71300941863919</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.810812886467859</v>
@@ -36659,7 +36551,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.727205878379604</v>
+        <v>1.727552793495982</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.757629731472568</v>
@@ -36748,7 +36640,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.746506750053908</v>
+        <v>1.742165442453735</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.674418308350244</v>
@@ -36837,7 +36729,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.760360254328523</v>
+        <v>1.754469813024117</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.948070675111597</v>
@@ -36926,7 +36818,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.764808807516663</v>
+        <v>1.763735184716737</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.154085746029261</v>
@@ -37015,7 +36907,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.773359582348969</v>
+        <v>1.772506815686269</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.19986643413454</v>
@@ -37104,7 +36996,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.775996273964903</v>
+        <v>1.77398278837566</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.995391112420768</v>
@@ -37193,7 +37085,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.770025395184636</v>
+        <v>1.769810571935736</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.160892127828772</v>
@@ -37282,7 +37174,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.761934634403209</v>
+        <v>1.766027520854736</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.030479772723042</v>
@@ -37371,7 +37263,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.754372285239811</v>
+        <v>1.761463242196907</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.968867585307255</v>
@@ -37460,7 +37352,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.745857309377919</v>
+        <v>1.753238021356667</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.187334331456342</v>
@@ -37549,7 +37441,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.749277829523165</v>
+        <v>1.761714563632444</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.152525941644948</v>
@@ -37638,7 +37530,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.743939473912022</v>
+        <v>1.758655312984772</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.28797445508009</v>
@@ -37727,7 +37619,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.748720919667376</v>
+        <v>1.766417549507043</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.097338712633334</v>
@@ -37816,7 +37708,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.762246889314636</v>
+        <v>1.784127982709483</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.484563163913831</v>
@@ -37905,7 +37797,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.761252796503941</v>
+        <v>1.782315972957525</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.603540385282575</v>
@@ -37994,7 +37886,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.736532397799804</v>
+        <v>1.757678631090918</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.51586303906802</v>
@@ -38083,7 +37975,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.726018140444173</v>
+        <v>1.748197647915027</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.396871198727209</v>
@@ -38172,7 +38064,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.722618688169038</v>
+        <v>1.751066354307689</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.398203306224616</v>
@@ -38261,7 +38153,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.710525148393275</v>
+        <v>1.735210827084298</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.374641167614856</v>
@@ -38350,7 +38242,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.689962378728685</v>
+        <v>1.713314549280144</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.978790439927544</v>
@@ -38439,7 +38331,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.678121186591351</v>
+        <v>1.696941527092084</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.155187852327085</v>
@@ -38528,7 +38420,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.676903295842736</v>
+        <v>1.694666372423024</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.241565242508053</v>
@@ -38617,7 +38509,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.664213137366145</v>
+        <v>1.679628856888276</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.152947138528988</v>
@@ -38706,7 +38598,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.647772578427971</v>
+        <v>1.662596377944875</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.047638051429087</v>
@@ -38795,7 +38687,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.65594182269652</v>
+        <v>1.66844618499309</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.128467593768326</v>
@@ -38884,7 +38776,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.658786677266169</v>
+        <v>1.671703424278667</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.17012840728278</v>
@@ -38973,7 +38865,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.663907906940467</v>
+        <v>1.677970097057907</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.187646872964052</v>
@@ -39062,7 +38954,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.660840296297189</v>
+        <v>1.675390654152692</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.336497606909138</v>
@@ -39151,7 +39043,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.657580666568737</v>
+        <v>1.671219464609172</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.523589696667544</v>
@@ -39240,7 +39132,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.652249998377071</v>
+        <v>1.663974153623881</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.138630735084248</v>
@@ -39329,7 +39221,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.666054948172846</v>
+        <v>1.674936699109738</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.064980950818673</v>
@@ -39418,7 +39310,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.673992841997225</v>
+        <v>1.679318222574116</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.449379370176587</v>
@@ -39507,7 +39399,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.649147511922221</v>
+        <v>1.65398993324286</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.589486709173265</v>
@@ -39596,7 +39488,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.658174583533684</v>
+        <v>1.667545843666077</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.791510826613477</v>
@@ -39685,7 +39577,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.662877661389565</v>
+        <v>1.670627267427705</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.416233411890663</v>
@@ -39774,7 +39666,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.667563121112975</v>
+        <v>1.680526337440485</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.579834449532625</v>
@@ -39863,7 +39755,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.670771038187721</v>
+        <v>1.680805963530531</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.557614199326943</v>
@@ -39952,7 +39844,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.674462783913126</v>
+        <v>1.688527312600849</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.627087817912372</v>
@@ -40041,7 +39933,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.666591539625464</v>
+        <v>1.683373250629552</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.70046854937165</v>
@@ -40130,7 +40022,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.662640893083432</v>
+        <v>1.683368219514202</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.679889486706396</v>
@@ -40219,7 +40111,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.652190891711971</v>
+        <v>1.673663849604626</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.626871504270194</v>
@@ -40308,7 +40200,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.663123825591605</v>
+        <v>1.685657542176312</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.587024831201697</v>
